--- a/TP2/Punto8.xlsx
+++ b/TP2/Punto8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB386A4D-41CB-49FC-8125-0617CB20E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2306F0D-A365-4385-BA68-8E646D82A59E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t>Proceso</t>
   </si>
@@ -36,18 +36,6 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>Recurso</t>
-  </si>
-  <si>
-    <t>Instante</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>&gt;1</t>
   </si>
   <si>
@@ -57,28 +45,10 @@
     <t>4&lt;</t>
   </si>
   <si>
-    <t>R2, R2</t>
-  </si>
-  <si>
-    <t>3, 5</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
     <t>6&lt;</t>
   </si>
   <si>
     <t>&gt;</t>
-  </si>
-  <si>
-    <t>R3, R3</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>2, 1</t>
   </si>
   <si>
     <t>5&lt;</t>
@@ -146,13 +116,40 @@
   </si>
   <si>
     <t>5,2,4</t>
+  </si>
+  <si>
+    <t>Punto 8.B</t>
+  </si>
+  <si>
+    <t>(R1, 2, 3) (R1, 3, 2)</t>
+  </si>
+  <si>
+    <t>(R2, 3, 2)</t>
+  </si>
+  <si>
+    <t>(R2, 2, 3)</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>2,5,1,3</t>
+  </si>
+  <si>
+    <t>5,1,3</t>
+  </si>
+  <si>
+    <t>Qeue</t>
+  </si>
+  <si>
+    <t>RR-TV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,6 +203,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -251,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -329,11 +334,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -391,6 +429,46 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,10 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -425,6 +503,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="57"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -841,15 +928,11 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -927,23 +1010,19 @@
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
+      <c r="D3" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" s="15">
         <v>2</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -951,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
@@ -979,19 +1058,15 @@
       <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4" s="15">
         <v>2</v>
@@ -1000,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -1014,14 +1089,14 @@
         <v>5</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V4" s="19"/>
       <c r="W4" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -1039,14 +1114,14 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -1061,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
@@ -1085,15 +1160,11 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1101,7 +1172,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -1113,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W6" s="20"/>
       <c r="X6" s="15">
@@ -1126,13 +1197,13 @@
         <v>3</v>
       </c>
       <c r="Z6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1145,9 +1216,9 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1157,7 +1228,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -1168,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1179,11 +1250,11 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1201,19 +1272,19 @@
         <v>3</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N8" s="9">
         <v>2.4</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="R8" s="7">
         <v>4.5</v>
@@ -1239,21 +1310,21 @@
       <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="37"/>
+      <c r="A9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="59"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1277,10 +1348,10 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="35"/>
+      <c r="A12" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="57"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1297,11 +1368,11 @@
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
@@ -1388,13 +1459,13 @@
       <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
+      <c r="D14" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H14" s="30">
         <v>2</v>
@@ -1402,7 +1473,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -1410,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -1443,15 +1514,15 @@
       <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="D15" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J15" s="31">
         <v>2</v>
@@ -1460,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
@@ -1477,13 +1548,13 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="32" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
@@ -1506,14 +1577,14 @@
       <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="6"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="32">
@@ -1531,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
@@ -1559,11 +1630,11 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="D17" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -1571,7 +1642,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -1581,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X17" s="30">
         <v>2</v>
@@ -1597,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="AA17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="32">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="33" t="s">
         <v>8</v>
-      </c>
-      <c r="AB17" s="32">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="33" t="s">
-        <v>18</v>
       </c>
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
@@ -1622,9 +1693,9 @@
       <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -1634,7 +1705,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -1645,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="32" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -1663,16 +1734,16 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="40"/>
+      <c r="C19" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="62"/>
       <c r="E19" s="5"/>
       <c r="F19" s="22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -1689,28 +1760,28 @@
         <v>3.1</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S19" s="21">
         <v>5.2</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="U19" s="21">
         <v>2.4</v>
@@ -1735,25 +1806,1030 @@
       <c r="AI19" s="34"/>
     </row>
     <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="38"/>
+      <c r="A20" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="D20" s="36"/>
       <c r="F20" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
+    <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7</v>
+      </c>
+      <c r="O24" s="7">
+        <v>8</v>
+      </c>
+      <c r="P24" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>10</v>
+      </c>
+      <c r="R24" s="7">
+        <v>11</v>
+      </c>
+      <c r="S24" s="7">
+        <v>12</v>
+      </c>
+      <c r="T24" s="7">
+        <v>13</v>
+      </c>
+      <c r="U24" s="7">
+        <v>14</v>
+      </c>
+      <c r="V24" s="7">
+        <v>15</v>
+      </c>
+      <c r="W24" s="7">
+        <v>16</v>
+      </c>
+      <c r="X24" s="7">
+        <v>17</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="39">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="24"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="15">
+        <v>3</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="42"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2</v>
+      </c>
+      <c r="K26" s="15">
+        <v>3</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="17">
+        <v>4</v>
+      </c>
+      <c r="U26" s="17">
+        <v>5</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="42"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="16">
+        <v>1</v>
+      </c>
+      <c r="M27" s="16">
+        <v>2</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="42"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="20"/>
+      <c r="O28" s="17">
+        <v>1</v>
+      </c>
+      <c r="P28" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>3</v>
+      </c>
+      <c r="R28" s="17">
+        <v>4</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="42"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="16">
+        <v>1</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="42"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="21">
+        <v>3</v>
+      </c>
+      <c r="K30" s="21">
+        <v>3</v>
+      </c>
+      <c r="L30" s="21">
+        <v>1</v>
+      </c>
+      <c r="M30" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="N30" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="O30" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="P30" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="X30" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="Y30" s="21">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="34"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7">
+        <v>4</v>
+      </c>
+      <c r="L35" s="7">
+        <v>5</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6</v>
+      </c>
+      <c r="N35" s="7">
+        <v>7</v>
+      </c>
+      <c r="O35" s="7">
+        <v>8</v>
+      </c>
+      <c r="P35" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>10</v>
+      </c>
+      <c r="R35" s="7">
+        <v>11</v>
+      </c>
+      <c r="S35" s="7">
+        <v>12</v>
+      </c>
+      <c r="T35" s="7">
+        <v>13</v>
+      </c>
+      <c r="U35" s="7">
+        <v>14</v>
+      </c>
+      <c r="V35" s="7">
+        <v>15</v>
+      </c>
+      <c r="W35" s="7">
+        <v>16</v>
+      </c>
+      <c r="X35" s="7">
+        <v>17</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="15">
+        <v>2</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="17">
+        <v>3</v>
+      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="21"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>6</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="17">
+        <v>2</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="17">
+        <v>3</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="17">
+        <v>4</v>
+      </c>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="L38" s="16">
+        <v>2</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA38" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>2</v>
+      </c>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="17">
+        <v>3</v>
+      </c>
+      <c r="W39" s="17">
+        <v>4</v>
+      </c>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="37"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="17">
+        <v>1</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="55">
+        <v>1</v>
+      </c>
+      <c r="G42" s="47">
+        <v>1</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="47">
+        <v>1</v>
+      </c>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="47">
+        <v>1</v>
+      </c>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="52">
+        <v>2</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="47">
+        <v>2</v>
+      </c>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="47">
+        <v>2</v>
+      </c>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="47">
+        <v>2</v>
+      </c>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F44" s="53">
+        <v>3</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="47">
+        <v>3</v>
+      </c>
+      <c r="K44" s="48"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="47">
+        <v>3</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="47">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="47">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F45" s="53">
+        <v>4</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="47">
+        <v>4</v>
+      </c>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="47">
+        <v>4</v>
+      </c>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F46" s="53">
+        <v>5</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="47">
+        <v>5</v>
+      </c>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="37">
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:D9"/>
@@ -1766,6 +2842,10 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TP2/Punto8.xlsx
+++ b/TP2/Punto8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2306F0D-A365-4385-BA68-8E646D82A59E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9857769-BB9E-4291-B38E-848B34962E35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,50 +469,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="A25:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -928,11 +928,11 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -1010,11 +1010,11 @@
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1058,11 +1058,11 @@
       <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="15" t="s">
@@ -1114,9 +1114,9 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1160,11 +1160,11 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1216,9 +1216,9 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1310,21 +1310,21 @@
       <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1348,10 +1348,10 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1368,11 +1368,11 @@
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
@@ -1459,11 +1459,11 @@
       <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="27" t="s">
         <v>3</v>
       </c>
@@ -1514,11 +1514,11 @@
       <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="27" t="s">
@@ -1577,9 +1577,9 @@
       <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="6"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -1630,11 +1630,11 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -1693,9 +1693,9 @@
       <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -1737,10 +1737,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="5"/>
       <c r="F19" s="22" t="s">
         <v>19</v>
@@ -1806,18 +1806,18 @@
       <c r="AI19" s="34"/>
     </row>
     <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="36"/>
       <c r="F20" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -1825,10 +1825,10 @@
       <c r="G21" s="13"/>
     </row>
     <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1845,11 +1845,11 @@
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="7">
         <v>0</v>
       </c>
@@ -1926,11 +1926,11 @@
       <c r="C25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="27" t="s">
         <v>3</v>
       </c>
@@ -1983,11 +1983,11 @@
       <c r="C26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="27" t="s">
@@ -2038,11 +2038,11 @@
       <c r="C27" s="7">
         <v>4</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="25"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -2093,9 +2093,9 @@
       <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -2142,9 +2142,9 @@
       <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -2180,10 +2180,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="5"/>
       <c r="F30" s="22"/>
       <c r="G30" s="21"/>
@@ -2243,19 +2243,19 @@
       <c r="AC30" s="34"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="59" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="65"/>
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -2263,10 +2263,10 @@
       <c r="G32" s="13"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="57"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2283,11 +2283,11 @@
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="7">
         <v>0</v>
       </c>
@@ -2362,11 +2362,11 @@
       <c r="C36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="27" t="s">
         <v>3</v>
       </c>
@@ -2417,11 +2417,11 @@
       <c r="C37" s="7">
         <v>6</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="27" t="s">
@@ -2470,11 +2470,11 @@
       <c r="C38" s="7">
         <v>4</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="25"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -2521,9 +2521,9 @@
       <c r="C39" s="7">
         <v>5</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -2568,9 +2568,9 @@
       <c r="C40" s="7">
         <v>2</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -2604,10 +2604,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="35"/>
       <c r="F41" s="56"/>
       <c r="G41" s="49"/>
@@ -2633,10 +2633,10 @@
       <c r="AA41" s="49"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="60"/>
+      <c r="B42" s="57"/>
       <c r="D42" s="36"/>
       <c r="E42" s="54" t="s">
         <v>37</v>
@@ -2677,8 +2677,8 @@
       <c r="AA42" s="29"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -2809,27 +2809,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:D9"/>
@@ -2846,6 +2825,27 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TP2/Punto8.xlsx
+++ b/TP2/Punto8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9857769-BB9E-4291-B38E-848B34962E35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7153B0BD-0300-4E36-9D03-B7A9CC7BEB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ezequiel Baamonde</author>
+  </authors>
+  <commentList>
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{704FAEA8-37F8-4197-ABFA-6A33677F6E76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ezequiel Baamonde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Resolución
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
   <si>
     <t>Proceso</t>
   </si>
@@ -143,13 +178,55 @@
   </si>
   <si>
     <t>RR-TV</t>
+  </si>
+  <si>
+    <t>(R1, 1, 2)</t>
+  </si>
+  <si>
+    <t>ER2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>ER1</t>
+  </si>
+  <si>
+    <t>RR TV (Q=2)</t>
+  </si>
+  <si>
+    <t>LLEGADA</t>
+  </si>
+  <si>
+    <t>PRIORIDAD</t>
+  </si>
+  <si>
+    <t>I/O (rec,ins,dur)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>QUEUE CPU</t>
+  </si>
+  <si>
+    <t>QUEUE R1</t>
+  </si>
+  <si>
+    <t>QUEUE R2</t>
+  </si>
+  <si>
+    <t>Matyas Guaymas RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,12 +281,40 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -256,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,11 +472,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -447,31 +576,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,32 +621,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,23 +1071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="A25:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="28" max="28" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -928,11 +1105,11 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -1010,11 +1187,11 @@
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1058,11 +1235,11 @@
       <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="15" t="s">
@@ -1114,9 +1291,9 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1160,11 +1337,11 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1216,9 +1393,9 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1310,21 +1487,21 @@
       <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1348,10 +1525,10 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1368,11 +1545,11 @@
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
@@ -1459,11 +1636,11 @@
       <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="27" t="s">
         <v>3</v>
       </c>
@@ -1514,11 +1691,11 @@
       <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="27" t="s">
@@ -1577,9 +1754,9 @@
       <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -1630,11 +1807,11 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -1693,9 +1870,9 @@
       <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -1737,10 +1914,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="5"/>
       <c r="F19" s="22" t="s">
         <v>19</v>
@@ -1806,18 +1983,18 @@
       <c r="AI19" s="34"/>
     </row>
     <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="51"/>
       <c r="D20" s="36"/>
       <c r="F20" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -1825,10 +2002,10 @@
       <c r="G21" s="13"/>
     </row>
     <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="66"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1845,11 +2022,11 @@
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="7">
         <v>0</v>
       </c>
@@ -1926,11 +2103,11 @@
       <c r="C25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="27" t="s">
         <v>3</v>
       </c>
@@ -1983,11 +2160,11 @@
       <c r="C26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="27" t="s">
@@ -2038,11 +2215,11 @@
       <c r="C27" s="7">
         <v>4</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="25"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -2093,9 +2270,9 @@
       <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -2142,9 +2319,9 @@
       <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -2180,10 +2357,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="5"/>
       <c r="F30" s="22"/>
       <c r="G30" s="21"/>
@@ -2243,19 +2420,19 @@
       <c r="AC30" s="34"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="65" t="s">
+      <c r="B31" s="51"/>
+      <c r="C31" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="50"/>
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -2263,10 +2440,10 @@
       <c r="G32" s="13"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="66"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2283,11 +2460,11 @@
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="7">
         <v>0</v>
       </c>
@@ -2362,50 +2539,49 @@
       <c r="C36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="15">
-        <v>2</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="17">
-        <v>3</v>
-      </c>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="W36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="16" t="s">
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="38">
+        <v>2</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38">
+        <v>3</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="T36" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AA36" s="21"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2417,48 +2593,51 @@
       <c r="C37" s="7">
         <v>6</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="17">
-        <v>2</v>
-      </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="17">
-        <v>3</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S37" s="17">
-        <v>4</v>
-      </c>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="17">
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="38">
+        <v>2</v>
+      </c>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38">
+        <v>3</v>
+      </c>
+      <c r="N37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" s="38"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="38">
+        <v>4</v>
+      </c>
+      <c r="V37" s="38">
         <v>5</v>
       </c>
-      <c r="Y37" s="17" t="s">
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -2470,46 +2649,47 @@
       <c r="C38" s="7">
         <v>4</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="27" t="s">
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="17">
-        <v>1</v>
-      </c>
-      <c r="L38" s="16">
-        <v>2</v>
-      </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="W38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA38" s="16" t="s">
+      <c r="K38" s="38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="38">
+        <v>2</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="38"/>
+      <c r="R38" s="38">
+        <v>3</v>
+      </c>
+      <c r="S38" s="38" t="s">
         <v>5</v>
       </c>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
@@ -2521,42 +2701,47 @@
       <c r="C39" s="7">
         <v>5</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="27" t="s">
+      <c r="D39" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>2</v>
-      </c>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="17">
-        <v>3</v>
-      </c>
-      <c r="W39" s="17">
-        <v>4</v>
-      </c>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="17" t="s">
+      <c r="N39" s="38"/>
+      <c r="O39" s="38">
+        <v>1</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="W39" s="38">
+        <v>2</v>
+      </c>
+      <c r="X39" s="38">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="38">
+        <v>4</v>
+      </c>
+      <c r="AA39" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA39" s="37"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
@@ -2568,247 +2753,684 @@
       <c r="C40" s="7">
         <v>2</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="28" t="s">
+      <c r="D40" s="57"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="17">
-        <v>1</v>
-      </c>
-      <c r="U40" s="17" t="s">
+      <c r="P40" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="38" t="s">
         <v>9</v>
       </c>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
       <c r="Y40" s="38"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
-      <c r="AA41" s="49"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="51"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="55">
-        <v>1</v>
-      </c>
-      <c r="G42" s="47">
-        <v>1</v>
-      </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="47">
-        <v>1</v>
-      </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="47">
-        <v>1</v>
-      </c>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="65">
+        <v>3</v>
+      </c>
+      <c r="H42" s="65">
+        <v>2</v>
+      </c>
+      <c r="I42" s="65">
+        <v>1</v>
+      </c>
+      <c r="J42" s="65">
+        <v>4</v>
+      </c>
+      <c r="K42" s="65">
+        <v>5</v>
+      </c>
+      <c r="L42" s="65">
+        <v>3</v>
+      </c>
+      <c r="M42" s="65">
+        <v>1</v>
+      </c>
+      <c r="N42" s="65">
+        <v>2</v>
+      </c>
+      <c r="O42" s="66">
+        <v>4</v>
+      </c>
+      <c r="P42" s="66">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="52">
-        <v>2</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="47">
-        <v>2</v>
-      </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="47">
-        <v>2</v>
-      </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="47">
-        <v>2</v>
-      </c>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F44" s="53">
-        <v>3</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="47">
-        <v>3</v>
-      </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="47">
-        <v>3</v>
-      </c>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="47">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="47">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F45" s="53">
-        <v>4</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="47">
-        <v>4</v>
-      </c>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="47">
-        <v>4</v>
-      </c>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="47">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
+      <c r="A45" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="77">
+        <v>0</v>
+      </c>
+      <c r="G45" s="77">
+        <v>1</v>
+      </c>
+      <c r="H45" s="77">
+        <v>2</v>
+      </c>
+      <c r="I45" s="77">
+        <v>3</v>
+      </c>
+      <c r="J45" s="77">
+        <v>4</v>
+      </c>
+      <c r="K45" s="77">
+        <v>5</v>
+      </c>
+      <c r="L45" s="77">
+        <v>6</v>
+      </c>
+      <c r="M45" s="77">
+        <v>7</v>
+      </c>
+      <c r="N45" s="77">
+        <v>8</v>
+      </c>
+      <c r="O45" s="77">
+        <v>9</v>
+      </c>
+      <c r="P45" s="77">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="77">
+        <v>11</v>
+      </c>
+      <c r="R45" s="77">
+        <v>12</v>
+      </c>
+      <c r="S45" s="77">
+        <v>13</v>
+      </c>
+      <c r="T45" s="77">
+        <v>14</v>
+      </c>
+      <c r="U45" s="77">
+        <v>15</v>
+      </c>
+      <c r="V45" s="77">
+        <v>16</v>
+      </c>
+      <c r="W45" s="77">
+        <v>17</v>
+      </c>
+      <c r="X45" s="77">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="77">
+        <v>19</v>
+      </c>
+      <c r="Z45" s="77">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="77">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F46" s="53">
+      <c r="A46" s="78">
+        <v>1</v>
+      </c>
+      <c r="B46" s="78">
+        <v>0</v>
+      </c>
+      <c r="C46" s="78">
+        <v>4</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="36">
+        <v>2</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36">
+        <v>3</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="47">
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="78">
+        <v>2</v>
+      </c>
+      <c r="B47" s="78">
+        <v>2</v>
+      </c>
+      <c r="C47" s="78">
+        <v>6</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="36">
+        <v>2</v>
+      </c>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36">
+        <v>3</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36">
+        <v>4</v>
+      </c>
+      <c r="U47" s="36">
         <v>5</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="78">
+        <v>3</v>
+      </c>
+      <c r="B48" s="78">
+        <v>3</v>
+      </c>
+      <c r="C48" s="78">
+        <v>4</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="36">
+        <v>1</v>
+      </c>
+      <c r="K48" s="36">
+        <v>2</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36">
+        <v>3</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="78">
+        <v>4</v>
+      </c>
+      <c r="B49" s="78">
+        <v>6</v>
+      </c>
+      <c r="C49" s="78">
+        <v>5</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36">
+        <v>1</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36">
+        <v>2</v>
+      </c>
+      <c r="W49" s="36">
+        <v>3</v>
+      </c>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="36"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="78">
+        <v>5</v>
+      </c>
+      <c r="B50" s="78">
+        <v>8</v>
+      </c>
+      <c r="C50" s="78">
+        <v>2</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="80">
+        <v>1</v>
+      </c>
+      <c r="P50" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="36"/>
+      <c r="E51" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="81">
+        <v>1</v>
+      </c>
+      <c r="G51" s="82">
+        <v>2</v>
+      </c>
+      <c r="H51" s="82">
+        <v>3</v>
+      </c>
+      <c r="I51" s="82">
+        <v>2</v>
+      </c>
+      <c r="J51" s="82">
+        <v>1</v>
+      </c>
+      <c r="K51" s="82">
+        <v>4</v>
+      </c>
+      <c r="L51" s="82">
+        <v>5</v>
+      </c>
+      <c r="M51" s="82">
+        <v>3</v>
+      </c>
+      <c r="N51" s="82">
+        <v>1</v>
+      </c>
+      <c r="O51" s="82">
+        <v>2</v>
+      </c>
+      <c r="P51" s="82">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="82">
+        <v>2</v>
+      </c>
+      <c r="R51" s="82">
+        <v>4</v>
+      </c>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="83"/>
+      <c r="W51" s="83"/>
+      <c r="X51" s="83"/>
+      <c r="Y51" s="83"/>
+      <c r="Z51" s="83"/>
+      <c r="AA51" s="84"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="E52" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="81">
+        <v>1</v>
+      </c>
+      <c r="G52" s="82">
+        <v>1</v>
+      </c>
+      <c r="H52" s="82">
+        <v>4</v>
+      </c>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="83"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="83"/>
+      <c r="AA52" s="84"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="E53" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="85">
+        <v>3</v>
+      </c>
+      <c r="G53" s="85">
+        <v>2</v>
+      </c>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:D9"/>
@@ -2825,29 +3447,9 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>